--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Cadm1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.79021299751102</v>
+        <v>4.179958</v>
       </c>
       <c r="H2">
-        <v>1.79021299751102</v>
+        <v>12.539874</v>
       </c>
       <c r="I2">
-        <v>0.1768976157790073</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="J2">
-        <v>0.1768976157790073</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.39694023528735</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="N2">
-        <v>1.39694023528735</v>
+        <v>5.505898</v>
       </c>
       <c r="O2">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="P2">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="Q2">
-        <v>2.500820565957516</v>
+        <v>7.671474130761334</v>
       </c>
       <c r="R2">
-        <v>2.500820565957516</v>
+        <v>69.043267176852</v>
       </c>
       <c r="S2">
-        <v>0.01428447322190188</v>
+        <v>0.02699103472429079</v>
       </c>
       <c r="T2">
-        <v>0.01428447322190188</v>
+        <v>0.02699103472429079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.79021299751102</v>
+        <v>4.179958</v>
       </c>
       <c r="H3">
-        <v>1.79021299751102</v>
+        <v>12.539874</v>
       </c>
       <c r="I3">
-        <v>0.1768976157790073</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="J3">
-        <v>0.1768976157790073</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.28470786752469</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="N3">
-        <v>2.28470786752469</v>
+        <v>0.048275</v>
       </c>
       <c r="O3">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="P3">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="Q3">
-        <v>4.090113719958385</v>
+        <v>0.06726249081666667</v>
       </c>
       <c r="R3">
-        <v>4.090113719958385</v>
+        <v>0.60536241735</v>
       </c>
       <c r="S3">
-        <v>0.02336237981348701</v>
+        <v>0.0002366538939361278</v>
       </c>
       <c r="T3">
-        <v>0.02336237981348701</v>
+        <v>0.0002366538939361278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.79021299751102</v>
+        <v>4.179958</v>
       </c>
       <c r="H4">
-        <v>1.79021299751102</v>
+        <v>12.539874</v>
       </c>
       <c r="I4">
-        <v>0.1768976157790073</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="J4">
-        <v>0.1768976157790073</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.655669757001791</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="N4">
-        <v>8.655669757001791</v>
+        <v>16.265306</v>
       </c>
       <c r="O4">
-        <v>0.5003398588614308</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="P4">
-        <v>0.5003398588614308</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="Q4">
-        <v>15.49549250114766</v>
+        <v>22.66276531238267</v>
       </c>
       <c r="R4">
-        <v>15.49549250114766</v>
+        <v>203.964887811444</v>
       </c>
       <c r="S4">
-        <v>0.08850892811179213</v>
+        <v>0.07973584673148966</v>
       </c>
       <c r="T4">
-        <v>0.08850892811179213</v>
+        <v>0.07973584673148966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.79021299751102</v>
+        <v>4.179958</v>
       </c>
       <c r="H5">
-        <v>1.79021299751102</v>
+        <v>12.539874</v>
       </c>
       <c r="I5">
-        <v>0.1768976157790073</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="J5">
-        <v>0.1768976157790073</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.12965263830334</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="N5">
-        <v>1.12965263830334</v>
+        <v>28.087946</v>
       </c>
       <c r="O5">
-        <v>0.0652994230924676</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="P5">
-        <v>0.0652994230924676</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="Q5">
-        <v>2.022318835763254</v>
+        <v>39.13547819542267</v>
       </c>
       <c r="R5">
-        <v>2.022318835763254</v>
+        <v>352.219303758804</v>
       </c>
       <c r="S5">
-        <v>0.01155131225680217</v>
+        <v>0.1376928388103093</v>
       </c>
       <c r="T5">
-        <v>0.01155131225680217</v>
+        <v>0.1376928388103094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.79021299751102</v>
+        <v>4.179958</v>
       </c>
       <c r="H6">
-        <v>1.79021299751102</v>
+        <v>12.539874</v>
       </c>
       <c r="I6">
-        <v>0.1768976157790073</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="J6">
-        <v>0.1768976157790073</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.8326101842985</v>
+        <v>1.133543</v>
       </c>
       <c r="N6">
-        <v>3.8326101842985</v>
+        <v>3.400628999999999</v>
       </c>
       <c r="O6">
-        <v>0.2215435307165678</v>
+        <v>0.05247101080838672</v>
       </c>
       <c r="P6">
-        <v>0.2215435307165678</v>
+        <v>0.05247101080838674</v>
       </c>
       <c r="Q6">
-        <v>6.86118856632428</v>
+        <v>4.738162131193999</v>
       </c>
       <c r="R6">
-        <v>6.86118856632428</v>
+        <v>42.64345918074599</v>
       </c>
       <c r="S6">
-        <v>0.03919052237502411</v>
+        <v>0.01667057679300093</v>
       </c>
       <c r="T6">
-        <v>0.03919052237502411</v>
+        <v>0.01667057679300094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.11115892327693</v>
+        <v>4.179958</v>
       </c>
       <c r="H7">
-        <v>6.11115892327693</v>
+        <v>12.539874</v>
       </c>
       <c r="I7">
-        <v>0.6038663805241643</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="J7">
-        <v>0.6038663805241643</v>
+        <v>0.3177102277270478</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.39694023528735</v>
+        <v>3.833872666666666</v>
       </c>
       <c r="N7">
-        <v>1.39694023528735</v>
+        <v>11.501618</v>
       </c>
       <c r="O7">
-        <v>0.08074994769713023</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="P7">
-        <v>0.08074994769713023</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="Q7">
-        <v>8.536923784160862</v>
+        <v>16.02542672401466</v>
       </c>
       <c r="R7">
-        <v>8.536923784160862</v>
+        <v>144.228840516132</v>
       </c>
       <c r="S7">
-        <v>0.04876217864338161</v>
+        <v>0.05638327677402087</v>
       </c>
       <c r="T7">
-        <v>0.04876217864338161</v>
+        <v>0.05638327677402088</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.11115892327693</v>
+        <v>6.316491333333334</v>
       </c>
       <c r="H8">
-        <v>6.11115892327693</v>
+        <v>18.949474</v>
       </c>
       <c r="I8">
-        <v>0.6038663805241643</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="J8">
-        <v>0.6038663805241643</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.28470786752469</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="N8">
-        <v>2.28470786752469</v>
+        <v>5.505898</v>
       </c>
       <c r="O8">
-        <v>0.1320672396324036</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="P8">
-        <v>0.1320672396324036</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="Q8">
-        <v>13.96221287170452</v>
+        <v>11.59265233307245</v>
       </c>
       <c r="R8">
-        <v>13.96221287170452</v>
+        <v>104.333870997652</v>
       </c>
       <c r="S8">
-        <v>0.07975096598263701</v>
+        <v>0.04078716506569727</v>
       </c>
       <c r="T8">
-        <v>0.07975096598263701</v>
+        <v>0.04078716506569728</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.11115892327693</v>
+        <v>6.316491333333334</v>
       </c>
       <c r="H9">
-        <v>6.11115892327693</v>
+        <v>18.949474</v>
       </c>
       <c r="I9">
-        <v>0.6038663805241643</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="J9">
-        <v>0.6038663805241643</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.655669757001791</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="N9">
-        <v>8.655669757001791</v>
+        <v>0.048275</v>
       </c>
       <c r="O9">
-        <v>0.5003398588614308</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="P9">
-        <v>0.5003398588614308</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="Q9">
-        <v>52.89617347243975</v>
+        <v>0.1016428730388889</v>
       </c>
       <c r="R9">
-        <v>52.89617347243975</v>
+        <v>0.9147858573500001</v>
       </c>
       <c r="S9">
-        <v>0.3021384196026234</v>
+        <v>0.0003576165765414717</v>
       </c>
       <c r="T9">
-        <v>0.3021384196026234</v>
+        <v>0.0003576165765414717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.11115892327693</v>
+        <v>6.316491333333334</v>
       </c>
       <c r="H10">
-        <v>6.11115892327693</v>
+        <v>18.949474</v>
       </c>
       <c r="I10">
-        <v>0.6038663805241643</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="J10">
-        <v>0.6038663805241643</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.12965263830334</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="N10">
-        <v>1.12965263830334</v>
+        <v>16.265306</v>
       </c>
       <c r="O10">
-        <v>0.0652994230924676</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="P10">
-        <v>0.0652994230924676</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="Q10">
-        <v>6.903486800770783</v>
+        <v>34.24655479433824</v>
       </c>
       <c r="R10">
-        <v>6.903486800770783</v>
+        <v>308.2189931490441</v>
       </c>
       <c r="S10">
-        <v>0.03943212627316444</v>
+        <v>0.1204918290651364</v>
       </c>
       <c r="T10">
-        <v>0.03943212627316444</v>
+        <v>0.1204918290651364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.11115892327693</v>
+        <v>6.316491333333334</v>
       </c>
       <c r="H11">
-        <v>6.11115892327693</v>
+        <v>18.949474</v>
       </c>
       <c r="I11">
-        <v>0.6038663805241643</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="J11">
-        <v>0.6038663805241643</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.8326101842985</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="N11">
-        <v>3.8326101842985</v>
+        <v>28.087946</v>
       </c>
       <c r="O11">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="P11">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="Q11">
-        <v>23.42168992721782</v>
+        <v>59.1390891600449</v>
       </c>
       <c r="R11">
-        <v>23.42168992721782</v>
+        <v>532.251802440404</v>
       </c>
       <c r="S11">
-        <v>0.1337826900223578</v>
+        <v>0.2080728138912838</v>
       </c>
       <c r="T11">
-        <v>0.1337826900223578</v>
+        <v>0.2080728138912838</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.250459002799507</v>
+        <v>6.316491333333334</v>
       </c>
       <c r="H12">
-        <v>0.250459002799507</v>
+        <v>18.949474</v>
       </c>
       <c r="I12">
-        <v>0.0247487871595278</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="J12">
-        <v>0.0247487871595278</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.39694023528735</v>
+        <v>1.133543</v>
       </c>
       <c r="N12">
-        <v>1.39694023528735</v>
+        <v>3.400628999999999</v>
       </c>
       <c r="O12">
-        <v>0.08074994769713023</v>
+        <v>0.05247101080838672</v>
       </c>
       <c r="P12">
-        <v>0.08074994769713023</v>
+        <v>0.05247101080838674</v>
       </c>
       <c r="Q12">
-        <v>0.3498762583005783</v>
+        <v>7.160014535460666</v>
       </c>
       <c r="R12">
-        <v>0.3498762583005783</v>
+        <v>64.44013081914599</v>
       </c>
       <c r="S12">
-        <v>0.001998463268699278</v>
+        <v>0.02519153394236454</v>
       </c>
       <c r="T12">
-        <v>0.001998463268699278</v>
+        <v>0.02519153394236454</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.250459002799507</v>
+        <v>6.316491333333334</v>
       </c>
       <c r="H13">
-        <v>0.250459002799507</v>
+        <v>18.949474</v>
       </c>
       <c r="I13">
-        <v>0.0247487871595278</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="J13">
-        <v>0.0247487871595278</v>
+        <v>0.4801038431365237</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.28470786752469</v>
+        <v>3.833872666666666</v>
       </c>
       <c r="N13">
-        <v>2.28470786752469</v>
+        <v>11.501618</v>
       </c>
       <c r="O13">
-        <v>0.1320672396324036</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="P13">
-        <v>0.1320672396324036</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="Q13">
-        <v>0.572225654188422</v>
+        <v>24.21662347210356</v>
       </c>
       <c r="R13">
-        <v>0.572225654188422</v>
+        <v>217.949611248932</v>
       </c>
       <c r="S13">
-        <v>0.003268504004408711</v>
+        <v>0.08520288459550011</v>
       </c>
       <c r="T13">
-        <v>0.003268504004408711</v>
+        <v>0.08520288459550013</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.250459002799507</v>
+        <v>0.01457166666666667</v>
       </c>
       <c r="H14">
-        <v>0.250459002799507</v>
+        <v>0.043715</v>
       </c>
       <c r="I14">
-        <v>0.0247487871595278</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="J14">
-        <v>0.0247487871595278</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.655669757001791</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="N14">
-        <v>8.655669757001791</v>
+        <v>5.505898</v>
       </c>
       <c r="O14">
-        <v>0.5003398588614308</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="P14">
-        <v>0.5003398588614308</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="Q14">
-        <v>2.16789041590052</v>
+        <v>0.02674337011888889</v>
       </c>
       <c r="R14">
-        <v>2.16789041590052</v>
+        <v>0.24069033107</v>
       </c>
       <c r="S14">
-        <v>0.01238280467438973</v>
+        <v>9.409289782117202E-05</v>
       </c>
       <c r="T14">
-        <v>0.01238280467438973</v>
+        <v>9.409289782117204E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.250459002799507</v>
+        <v>0.01457166666666667</v>
       </c>
       <c r="H15">
-        <v>0.250459002799507</v>
+        <v>0.043715</v>
       </c>
       <c r="I15">
-        <v>0.0247487871595278</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="J15">
-        <v>0.0247487871595278</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.12965263830334</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="N15">
-        <v>1.12965263830334</v>
+        <v>0.048275</v>
       </c>
       <c r="O15">
-        <v>0.0652994230924676</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="P15">
-        <v>0.0652994230924676</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="Q15">
-        <v>0.2829316732992867</v>
+        <v>0.0002344824027777778</v>
       </c>
       <c r="R15">
-        <v>0.2829316732992867</v>
+        <v>0.002110341625</v>
       </c>
       <c r="S15">
-        <v>0.001616081523755435</v>
+        <v>8.249943319540391E-07</v>
       </c>
       <c r="T15">
-        <v>0.001616081523755435</v>
+        <v>8.249943319540392E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.250459002799507</v>
+        <v>0.01457166666666667</v>
       </c>
       <c r="H16">
-        <v>0.250459002799507</v>
+        <v>0.043715</v>
       </c>
       <c r="I16">
-        <v>0.0247487871595278</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="J16">
-        <v>0.0247487871595278</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.8326101842985</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="N16">
-        <v>3.8326101842985</v>
+        <v>16.265306</v>
       </c>
       <c r="O16">
-        <v>0.2215435307165678</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="P16">
-        <v>0.2215435307165678</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="Q16">
-        <v>0.9599117248786371</v>
+        <v>0.07900420575444445</v>
       </c>
       <c r="R16">
-        <v>0.9599117248786371</v>
+        <v>0.71103785179</v>
       </c>
       <c r="S16">
-        <v>0.005482933688274647</v>
+        <v>0.0002779655154323775</v>
       </c>
       <c r="T16">
-        <v>0.005482933688274647</v>
+        <v>0.0002779655154323776</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.96822066460058</v>
+        <v>0.01457166666666667</v>
       </c>
       <c r="H17">
-        <v>1.96822066460058</v>
+        <v>0.043715</v>
       </c>
       <c r="I17">
-        <v>0.1944872165373006</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="J17">
-        <v>0.1944872165373006</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.39694023528735</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="N17">
-        <v>1.39694023528735</v>
+        <v>28.087946</v>
       </c>
       <c r="O17">
-        <v>0.08074994769713023</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="P17">
-        <v>0.08074994769713023</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="Q17">
-        <v>2.749486638304558</v>
+        <v>0.1364293954877778</v>
       </c>
       <c r="R17">
-        <v>2.749486638304558</v>
+        <v>1.22786455939</v>
       </c>
       <c r="S17">
-        <v>0.01570483256314747</v>
+        <v>0.0004800082081042179</v>
       </c>
       <c r="T17">
-        <v>0.01570483256314747</v>
+        <v>0.0004800082081042181</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.96822066460058</v>
+        <v>0.01457166666666667</v>
       </c>
       <c r="H18">
-        <v>1.96822066460058</v>
+        <v>0.043715</v>
       </c>
       <c r="I18">
-        <v>0.1944872165373006</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="J18">
-        <v>0.1944872165373006</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.28470786752469</v>
+        <v>1.133543</v>
       </c>
       <c r="N18">
-        <v>2.28470786752469</v>
+        <v>3.400628999999999</v>
       </c>
       <c r="O18">
-        <v>0.1320672396324036</v>
+        <v>0.05247101080838672</v>
       </c>
       <c r="P18">
-        <v>0.1320672396324036</v>
+        <v>0.05247101080838674</v>
       </c>
       <c r="Q18">
-        <v>4.496809237437619</v>
+        <v>0.01651761074833333</v>
       </c>
       <c r="R18">
-        <v>4.496809237437619</v>
+        <v>0.148658496735</v>
       </c>
       <c r="S18">
-        <v>0.02568538983187085</v>
+        <v>5.811495909018189E-05</v>
       </c>
       <c r="T18">
-        <v>0.02568538983187085</v>
+        <v>5.811495909018192E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.96822066460058</v>
+        <v>0.01457166666666667</v>
       </c>
       <c r="H19">
-        <v>1.96822066460058</v>
+        <v>0.043715</v>
       </c>
       <c r="I19">
-        <v>0.1944872165373006</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="J19">
-        <v>0.1944872165373006</v>
+        <v>0.001107563170498196</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.655669757001791</v>
+        <v>3.833872666666666</v>
       </c>
       <c r="N19">
-        <v>8.655669757001791</v>
+        <v>11.501618</v>
       </c>
       <c r="O19">
-        <v>0.5003398588614308</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="P19">
-        <v>0.5003398588614308</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="Q19">
-        <v>17.0362680816892</v>
+        <v>0.0558659145411111</v>
       </c>
       <c r="R19">
-        <v>17.0362680816892</v>
+        <v>0.5027932308699999</v>
       </c>
       <c r="S19">
-        <v>0.09730970647262555</v>
+        <v>0.000196556595718292</v>
       </c>
       <c r="T19">
-        <v>0.09730970647262555</v>
+        <v>0.0001965565957182921</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.96822066460058</v>
+        <v>0.5460566666666667</v>
       </c>
       <c r="H20">
-        <v>1.96822066460058</v>
+        <v>1.63817</v>
       </c>
       <c r="I20">
-        <v>0.1944872165373006</v>
+        <v>0.0415046725154988</v>
       </c>
       <c r="J20">
-        <v>0.1944872165373006</v>
+        <v>0.0415046725154988</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.12965263830334</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="N20">
-        <v>1.12965263830334</v>
+        <v>5.505898</v>
       </c>
       <c r="O20">
-        <v>0.0652994230924676</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="P20">
-        <v>0.0652994230924676</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="Q20">
-        <v>2.223405666529199</v>
+        <v>1.002177436295556</v>
       </c>
       <c r="R20">
-        <v>2.223405666529199</v>
+        <v>9.01959692666</v>
       </c>
       <c r="S20">
-        <v>0.01269990303874556</v>
+        <v>0.003526024532167664</v>
       </c>
       <c r="T20">
-        <v>0.01269990303874556</v>
+        <v>0.003526024532167665</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5460566666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.63817</v>
+      </c>
+      <c r="I21">
+        <v>0.0415046725154988</v>
+      </c>
+      <c r="J21">
+        <v>0.0415046725154988</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01609166666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.048275</v>
+      </c>
+      <c r="O21">
+        <v>0.0007448733886510025</v>
+      </c>
+      <c r="P21">
+        <v>0.0007448733886510025</v>
+      </c>
+      <c r="Q21">
+        <v>0.008786961861111112</v>
+      </c>
+      <c r="R21">
+        <v>0.07908265675000001</v>
+      </c>
+      <c r="S21">
+        <v>3.091572606146971E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.091572606146971E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5460566666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.63817</v>
+      </c>
+      <c r="I22">
+        <v>0.0415046725154988</v>
+      </c>
+      <c r="J22">
+        <v>0.0415046725154988</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.421768666666668</v>
+      </c>
+      <c r="N22">
+        <v>16.265306</v>
+      </c>
+      <c r="O22">
+        <v>0.2509703489935885</v>
+      </c>
+      <c r="P22">
+        <v>0.2509703489935885</v>
+      </c>
+      <c r="Q22">
+        <v>2.960592925557779</v>
+      </c>
+      <c r="R22">
+        <v>26.64533633002</v>
+      </c>
+      <c r="S22">
+        <v>0.01041644214607933</v>
+      </c>
+      <c r="T22">
+        <v>0.01041644214607933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5460566666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.63817</v>
+      </c>
+      <c r="I23">
+        <v>0.0415046725154988</v>
+      </c>
+      <c r="J23">
+        <v>0.0415046725154988</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.362648666666667</v>
+      </c>
+      <c r="N23">
+        <v>28.087946</v>
+      </c>
+      <c r="O23">
+        <v>0.4333912691303236</v>
+      </c>
+      <c r="P23">
+        <v>0.4333912691303236</v>
+      </c>
+      <c r="Q23">
+        <v>5.112536722091112</v>
+      </c>
+      <c r="R23">
+        <v>46.01283049882001</v>
+      </c>
+      <c r="S23">
+        <v>0.01798776269633048</v>
+      </c>
+      <c r="T23">
+        <v>0.01798776269633048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5460566666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.63817</v>
+      </c>
+      <c r="I24">
+        <v>0.0415046725154988</v>
+      </c>
+      <c r="J24">
+        <v>0.0415046725154988</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.133543</v>
+      </c>
+      <c r="N24">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="P24">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="Q24">
+        <v>0.6189787121033333</v>
+      </c>
+      <c r="R24">
+        <v>5.57080840893</v>
+      </c>
+      <c r="S24">
+        <v>0.002177792120159289</v>
+      </c>
+      <c r="T24">
+        <v>0.002177792120159289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5460566666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.63817</v>
+      </c>
+      <c r="I25">
+        <v>0.0415046725154988</v>
+      </c>
+      <c r="J25">
+        <v>0.0415046725154988</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="N25">
+        <v>11.501618</v>
+      </c>
+      <c r="O25">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="P25">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="Q25">
+        <v>2.093511728784445</v>
+      </c>
+      <c r="R25">
+        <v>18.84160555906</v>
+      </c>
+      <c r="S25">
+        <v>0.007365735294700551</v>
+      </c>
+      <c r="T25">
+        <v>0.007365735294700553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.020391</v>
+      </c>
+      <c r="H26">
+        <v>0.061173</v>
+      </c>
+      <c r="I26">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="J26">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.835299333333333</v>
+      </c>
+      <c r="N26">
+        <v>5.505898</v>
+      </c>
+      <c r="O26">
+        <v>0.08495488142572298</v>
+      </c>
+      <c r="P26">
+        <v>0.08495488142572299</v>
+      </c>
+      <c r="Q26">
+        <v>0.037423588706</v>
+      </c>
+      <c r="R26">
+        <v>0.336812298354</v>
+      </c>
+      <c r="S26">
+        <v>0.0001316697892809003</v>
+      </c>
+      <c r="T26">
+        <v>0.0001316697892809003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.020391</v>
+      </c>
+      <c r="H27">
+        <v>0.061173</v>
+      </c>
+      <c r="I27">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="J27">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.01609166666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.048275</v>
+      </c>
+      <c r="O27">
+        <v>0.0007448733886510025</v>
+      </c>
+      <c r="P27">
+        <v>0.0007448733886510025</v>
+      </c>
+      <c r="Q27">
+        <v>0.000328125175</v>
+      </c>
+      <c r="R27">
+        <v>0.002953126575</v>
+      </c>
+      <c r="S27">
+        <v>1.154463645627918E-06</v>
+      </c>
+      <c r="T27">
+        <v>1.154463645627918E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.020391</v>
+      </c>
+      <c r="H28">
+        <v>0.061173</v>
+      </c>
+      <c r="I28">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="J28">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.421768666666668</v>
+      </c>
+      <c r="N28">
+        <v>16.265306</v>
+      </c>
+      <c r="O28">
+        <v>0.2509703489935885</v>
+      </c>
+      <c r="P28">
+        <v>0.2509703489935885</v>
+      </c>
+      <c r="Q28">
+        <v>0.110555284882</v>
+      </c>
+      <c r="R28">
+        <v>0.9949975639380001</v>
+      </c>
+      <c r="S28">
+        <v>0.0003889736812431621</v>
+      </c>
+      <c r="T28">
+        <v>0.0003889736812431622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.96822066460058</v>
-      </c>
-      <c r="H21">
-        <v>1.96822066460058</v>
-      </c>
-      <c r="I21">
-        <v>0.1944872165373006</v>
-      </c>
-      <c r="J21">
-        <v>0.1944872165373006</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.8326101842985</v>
-      </c>
-      <c r="N21">
-        <v>3.8326101842985</v>
-      </c>
-      <c r="O21">
-        <v>0.2215435307165678</v>
-      </c>
-      <c r="P21">
-        <v>0.2215435307165678</v>
-      </c>
-      <c r="Q21">
-        <v>7.543422564094945</v>
-      </c>
-      <c r="R21">
-        <v>7.543422564094945</v>
-      </c>
-      <c r="S21">
-        <v>0.04308738463091125</v>
-      </c>
-      <c r="T21">
-        <v>0.04308738463091125</v>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.020391</v>
+      </c>
+      <c r="H29">
+        <v>0.061173</v>
+      </c>
+      <c r="I29">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="J29">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>9.362648666666667</v>
+      </c>
+      <c r="N29">
+        <v>28.087946</v>
+      </c>
+      <c r="O29">
+        <v>0.4333912691303236</v>
+      </c>
+      <c r="P29">
+        <v>0.4333912691303236</v>
+      </c>
+      <c r="Q29">
+        <v>0.190913768962</v>
+      </c>
+      <c r="R29">
+        <v>1.718223920658</v>
+      </c>
+      <c r="S29">
+        <v>0.0006717040401317472</v>
+      </c>
+      <c r="T29">
+        <v>0.0006717040401317474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.020391</v>
+      </c>
+      <c r="H30">
+        <v>0.061173</v>
+      </c>
+      <c r="I30">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="J30">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.133543</v>
+      </c>
+      <c r="N30">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="P30">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="Q30">
+        <v>0.023114075313</v>
+      </c>
+      <c r="R30">
+        <v>0.208026677817</v>
+      </c>
+      <c r="S30">
+        <v>8.132371937375495E-05</v>
+      </c>
+      <c r="T30">
+        <v>8.132371937375498E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.020391</v>
+      </c>
+      <c r="H31">
+        <v>0.061173</v>
+      </c>
+      <c r="I31">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="J31">
+        <v>0.001549879030741991</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="N31">
+        <v>11.501618</v>
+      </c>
+      <c r="O31">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="P31">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="Q31">
+        <v>0.07817649754599999</v>
+      </c>
+      <c r="R31">
+        <v>0.7035884779139999</v>
+      </c>
+      <c r="S31">
+        <v>0.0002750533370667982</v>
+      </c>
+      <c r="T31">
+        <v>0.0002750533370667982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.079042</v>
+      </c>
+      <c r="H32">
+        <v>6.237126</v>
+      </c>
+      <c r="I32">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="J32">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.835299333333333</v>
+      </c>
+      <c r="N32">
+        <v>5.505898</v>
+      </c>
+      <c r="O32">
+        <v>0.08495488142572298</v>
+      </c>
+      <c r="P32">
+        <v>0.08495488142572299</v>
+      </c>
+      <c r="Q32">
+        <v>3.815664396572</v>
+      </c>
+      <c r="R32">
+        <v>34.340979569148</v>
+      </c>
+      <c r="S32">
+        <v>0.01342489441646518</v>
+      </c>
+      <c r="T32">
+        <v>0.01342489441646518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.079042</v>
+      </c>
+      <c r="H33">
+        <v>6.237126</v>
+      </c>
+      <c r="I33">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="J33">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01609166666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.048275</v>
+      </c>
+      <c r="O33">
+        <v>0.0007448733886510025</v>
+      </c>
+      <c r="P33">
+        <v>0.0007448733886510025</v>
+      </c>
+      <c r="Q33">
+        <v>0.03345525085</v>
+      </c>
+      <c r="R33">
+        <v>0.30109725765</v>
+      </c>
+      <c r="S33">
+        <v>0.0001177077341343513</v>
+      </c>
+      <c r="T33">
+        <v>0.0001177077341343513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.079042</v>
+      </c>
+      <c r="H34">
+        <v>6.237126</v>
+      </c>
+      <c r="I34">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="J34">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.421768666666668</v>
+      </c>
+      <c r="N34">
+        <v>16.265306</v>
+      </c>
+      <c r="O34">
+        <v>0.2509703489935885</v>
+      </c>
+      <c r="P34">
+        <v>0.2509703489935885</v>
+      </c>
+      <c r="Q34">
+        <v>11.272084772284</v>
+      </c>
+      <c r="R34">
+        <v>101.448762950556</v>
+      </c>
+      <c r="S34">
+        <v>0.03965929185420756</v>
+      </c>
+      <c r="T34">
+        <v>0.03965929185420757</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.079042</v>
+      </c>
+      <c r="H35">
+        <v>6.237126</v>
+      </c>
+      <c r="I35">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="J35">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>9.362648666666667</v>
+      </c>
+      <c r="N35">
+        <v>28.087946</v>
+      </c>
+      <c r="O35">
+        <v>0.4333912691303236</v>
+      </c>
+      <c r="P35">
+        <v>0.4333912691303236</v>
+      </c>
+      <c r="Q35">
+        <v>19.465339809244</v>
+      </c>
+      <c r="R35">
+        <v>175.188058283196</v>
+      </c>
+      <c r="S35">
+        <v>0.06848614148416399</v>
+      </c>
+      <c r="T35">
+        <v>0.06848614148416401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.079042</v>
+      </c>
+      <c r="H36">
+        <v>6.237126</v>
+      </c>
+      <c r="I36">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="J36">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.133543</v>
+      </c>
+      <c r="N36">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="P36">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="Q36">
+        <v>2.356683505805999</v>
+      </c>
+      <c r="R36">
+        <v>21.210151552254</v>
+      </c>
+      <c r="S36">
+        <v>0.00829166927439803</v>
+      </c>
+      <c r="T36">
+        <v>0.008291669274398034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.079042</v>
+      </c>
+      <c r="H37">
+        <v>6.237126</v>
+      </c>
+      <c r="I37">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="J37">
+        <v>0.1580238144196896</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="N37">
+        <v>11.501618</v>
+      </c>
+      <c r="O37">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="P37">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="Q37">
+        <v>7.970782296651999</v>
+      </c>
+      <c r="R37">
+        <v>71.73704066986799</v>
+      </c>
+      <c r="S37">
+        <v>0.02804410965632044</v>
+      </c>
+      <c r="T37">
+        <v>0.02804410965632045</v>
       </c>
     </row>
   </sheetData>
